--- a/dados_memorial.xlsx
+++ b/dados_memorial.xlsx
@@ -22,16 +22,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
-    <t xml:space="preserve">Nome Imóvel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Município</t>
+    <t xml:space="preserve">Nome Imovel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipio</t>
   </si>
   <si>
     <t xml:space="preserve">UF</t>
   </si>
   <si>
-    <t xml:space="preserve">Área</t>
+    <t xml:space="preserve">Area</t>
   </si>
   <si>
     <t xml:space="preserve">Vertice</t>
@@ -82,13 +82,13 @@
     <t xml:space="preserve">Comarca</t>
   </si>
   <si>
-    <t xml:space="preserve">Matrícula</t>
+    <t xml:space="preserve">Matricula</t>
   </si>
   <si>
     <t xml:space="preserve">TRT</t>
   </si>
   <si>
-    <t xml:space="preserve">Perímetro</t>
+    <t xml:space="preserve">Perimetro</t>
   </si>
   <si>
     <t xml:space="preserve">NDHD-P-0422</t>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">Estrada Vicinal</t>
   </si>
   <si>
-    <t xml:space="preserve">Proprietário</t>
+    <t xml:space="preserve">Proprietario</t>
   </si>
   <si>
     <t xml:space="preserve">CPF</t>
@@ -240,6 +240,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -261,6 +262,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -305,16 +307,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -444,311 +450,311 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="12" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="16.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="12" style="1" width="12.64"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>2803.77</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="2" t="n">
         <v>757.73</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>1799</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="2" t="n">
         <v>97.59</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="2" t="n">
         <v>41.89</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="2" t="n">
         <v>42.17</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="1" t="s">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="2" t="n">
         <v>62.09</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="1" t="s">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="2" t="n">
         <v>639.8</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="1" t="s">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="2" t="n">
         <v>80.31</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="1" t="s">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="3" t="n">
         <v>2789.09</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="1" t="s">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="2" t="n">
         <v>79.66</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="K11" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/dados_memorial.xlsx
+++ b/dados_memorial.xlsx
@@ -34,6 +34,24 @@
     <t xml:space="preserve">Area</t>
   </si>
   <si>
+    <t xml:space="preserve">Perimetro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matricula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comarca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proprietario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPF</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vertice</t>
   </si>
   <si>
@@ -64,6 +82,21 @@
     <t xml:space="preserve">47,8648 ha </t>
   </si>
   <si>
+    <t xml:space="preserve">7.394,09 m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFT2504896869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio Grande do Piauí - PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Correia de Miranda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">098.931.483-91</t>
+  </si>
+  <si>
     <t xml:space="preserve">NDHD-M-1314</t>
   </si>
   <si>
@@ -79,18 +112,6 @@
     <t xml:space="preserve">Manoel Gonçalves Diniz</t>
   </si>
   <si>
-    <t xml:space="preserve">Comarca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matricula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perimetro</t>
-  </si>
-  <si>
     <t xml:space="preserve">NDHD-P-0422</t>
   </si>
   <si>
@@ -103,15 +124,6 @@
     <t xml:space="preserve">107°53'</t>
   </si>
   <si>
-    <t xml:space="preserve">Rio Grande do Piauí - PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFT2504896869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.394,09 m </t>
-  </si>
-  <si>
     <t xml:space="preserve">NDHD-P-0423</t>
   </si>
   <si>
@@ -127,12 +139,6 @@
     <t xml:space="preserve">Estrada Vicinal</t>
   </si>
   <si>
-    <t xml:space="preserve">Proprietario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPF</t>
-  </si>
-  <si>
     <t xml:space="preserve">NDHD-V-0603</t>
   </si>
   <si>
@@ -143,12 +149,6 @@
   </si>
   <si>
     <t xml:space="preserve">211°22'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Correia de Miranda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">098.931.483-91</t>
   </si>
   <si>
     <t xml:space="preserve">NDHD-V-0604</t>
@@ -447,10 +447,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -496,265 +496,293 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>1799</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="3" t="n">
         <v>2803.77</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="2" t="n">
+      <c r="A3" s="0"/>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2" t="n">
         <v>757.73</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>1799</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="2" t="n">
+      <c r="A4" s="0"/>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2" t="n">
         <v>97.59</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="A5" s="0"/>
+      <c r="B5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="O6" s="2" t="n">
         <v>42.17</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="2"/>
+      <c r="P6" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="O7" s="2" t="n">
         <v>62.09</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="O8" s="2" t="n">
         <v>639.8</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="O9" s="2" t="n">
         <v>80.31</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="O10" s="3" t="n">
         <v>2789.09</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="O11" s="2" t="n">
         <v>79.66</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="2"/>
+      <c r="P11" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/dados_memorial.xlsx
+++ b/dados_memorial.xlsx
@@ -82,7 +82,7 @@
     <t xml:space="preserve">47,8648 ha </t>
   </si>
   <si>
-    <t xml:space="preserve">7.394,09 m </t>
+    <t xml:space="preserve">7394,09 m </t>
   </si>
   <si>
     <t xml:space="preserve">CFT2504896869</t>
@@ -450,7 +450,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -566,13 +566,6 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="J3" s="0"/>
       <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
@@ -593,13 +586,6 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
-      <c r="J4" s="0"/>
       <c r="K4" s="2" t="s">
         <v>34</v>
       </c>
@@ -620,11 +606,6 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
-      <c r="B5" s="0"/>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
-      <c r="J5" s="0"/>
       <c r="K5" s="2" t="s">
         <v>39</v>
       </c>
@@ -645,11 +626,6 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0"/>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
-      <c r="J6" s="0"/>
       <c r="K6" s="2" t="s">
         <v>43</v>
       </c>
@@ -670,9 +646,6 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="J7" s="0"/>
       <c r="K7" s="2" t="s">
         <v>47</v>
       </c>
@@ -693,9 +666,6 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="J8" s="0"/>
       <c r="K8" s="2" t="s">
         <v>51</v>
       </c>
@@ -716,9 +686,6 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="J9" s="0"/>
       <c r="K9" s="2" t="s">
         <v>56</v>
       </c>
@@ -739,9 +706,6 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="J10" s="0"/>
       <c r="K10" s="2" t="s">
         <v>60</v>
       </c>
@@ -762,9 +726,6 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="J11" s="0"/>
       <c r="K11" s="2" t="s">
         <v>64</v>
       </c>
